--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -684,9 +684,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="balance-score"/&gt;
-    &lt;display value="Balance assessment score"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="balance-assessment"/&gt;
+    &lt;display value="Balance assessment"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1642,6 +1642,15 @@
     <t>Observation.component:balanceScore.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="89236-3"/&gt;
+    &lt;display value="Balance [Score]"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:balanceScore.value[x]</t>
   </si>
   <si>
@@ -1847,8 +1856,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
-    &lt;code value="balance-assessment"/&gt;
-    &lt;display value="Balance assessment"/&gt;
+    &lt;code value="balance-status"/&gt;
+    &lt;display value="Balance status"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -13475,7 +13484,7 @@
         <v>87</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>212</v>
+        <v>511</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>87</v>
@@ -13549,7 +13558,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>449</v>
@@ -13669,13 +13678,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>449</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>87</v>
@@ -13697,7 +13706,7 @@
         <v>99</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>450</v>
@@ -13793,10 +13802,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13911,10 +13920,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13984,10 +13993,10 @@
         <v>87</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>87</v>
@@ -14031,10 +14040,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14057,19 +14066,19 @@
         <v>99</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>87</v>
@@ -14118,7 +14127,7 @@
         <v>87</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>85</v>
@@ -14139,10 +14148,10 @@
         <v>87</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>87</v>
@@ -14153,10 +14162,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14182,20 +14191,20 @@
         <v>118</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>87</v>
       </c>
       <c r="Q99" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>87</v>
@@ -14219,10 +14228,10 @@
         <v>187</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>87</v>
@@ -14240,7 +14249,7 @@
         <v>87</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>85</v>
@@ -14261,10 +14270,10 @@
         <v>87</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>87</v>
@@ -14275,10 +14284,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14304,14 +14313,14 @@
         <v>369</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>87</v>
@@ -14360,7 +14369,7 @@
         <v>87</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>85</v>
@@ -14381,10 +14390,10 @@
         <v>87</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>87</v>
@@ -14395,10 +14404,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14424,14 +14433,14 @@
         <v>112</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>87</v>
@@ -14441,7 +14450,7 @@
         <v>87</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>87</v>
@@ -14480,7 +14489,7 @@
         <v>87</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>85</v>
@@ -14489,7 +14498,7 @@
         <v>98</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>110</v>
@@ -14501,10 +14510,10 @@
         <v>87</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>87</v>
@@ -14515,10 +14524,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14544,16 +14553,16 @@
         <v>118</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>87</v>
@@ -14563,7 +14572,7 @@
         <v>87</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>87</v>
@@ -14602,7 +14611,7 @@
         <v>87</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>85</v>
@@ -14623,10 +14632,10 @@
         <v>87</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>87</v>
@@ -14637,7 +14646,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>453</v>
@@ -14759,7 +14768,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>457</v>
@@ -14881,7 +14890,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>458</v>
@@ -15003,13 +15012,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>87</v>
@@ -15127,7 +15136,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>441</v>
@@ -15245,7 +15254,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>442</v>
@@ -15365,7 +15374,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>443</v>
@@ -15487,7 +15496,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>444</v>
@@ -15535,7 +15544,7 @@
         <v>87</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>87</v>
@@ -15609,7 +15618,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>449</v>
@@ -15729,13 +15738,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>449</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>87</v>
@@ -15798,7 +15807,7 @@
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>87</v>
@@ -15851,7 +15860,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>453</v>
@@ -15973,7 +15982,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>457</v>
@@ -16095,7 +16104,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>458</v>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1644,9 +1644,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="89236-3"/&gt;
-    &lt;display value="Balance [Score]"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="walking-steadiness"/&gt;
+    &lt;display value="Walking steadiness measurement"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3860,7 +3860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>222</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>262</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>350</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>461</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>472</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>483</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>494</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>505</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>572</v>
       </c>
@@ -16226,12 +16226,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP115">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-walking-steadiness-observation.xlsx
+++ b/output/StructureDefinition-walking-steadiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
